--- a/ACCESS_SCRIPT/input_data/datapool/Access_Regression.xlsx
+++ b/ACCESS_SCRIPT/input_data/datapool/Access_Regression.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFB8475-EC75-4B38-BA40-0FD9866CF981}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E305089F-8C7F-48C3-BDEE-7B8650CBED92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2316" windowWidth="19008" windowHeight="7920" tabRatio="472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -525,7 +525,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/ACCESS_SCRIPT/input_data/datapool/Access_Regression.xlsx
+++ b/ACCESS_SCRIPT/input_data/datapool/Access_Regression.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E305089F-8C7F-48C3-BDEE-7B8650CBED92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32206C7A-3A28-4958-BEFB-0C8E248843DC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2316" windowWidth="19008" windowHeight="7920" tabRatio="472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regression" sheetId="1" r:id="rId1"/>
     <sheet name="dropdowns" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Regression!$A$1:$K$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Regression!$A$1:$P$2</definedName>
     <definedName name="CaseType">dropdowns!$B$1:$B$2</definedName>
     <definedName name="CaseType2">dropdowns!$E$1:$E$3</definedName>
     <definedName name="FiledSelf">dropdowns!$C$1:$C$2</definedName>
@@ -31,6 +31,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
   <si>
     <t>TC_TAG_001</t>
   </si>
@@ -148,9 +149,6 @@
     <t>Filed_On_Behalf_Of</t>
   </si>
   <si>
-    <t>Files</t>
-  </si>
-  <si>
     <t>INV - Investigation</t>
   </si>
   <si>
@@ -167,6 +165,27 @@
   </si>
   <si>
     <t>A-000-000</t>
+  </si>
+  <si>
+    <t>File_1</t>
+  </si>
+  <si>
+    <t>File_2</t>
+  </si>
+  <si>
+    <t>File_3</t>
+  </si>
+  <si>
+    <t>File_5</t>
+  </si>
+  <si>
+    <t>File_4</t>
+  </si>
+  <si>
+    <t>Number_of_uploads</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
 </sst>
 </file>
@@ -522,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -536,11 +555,13 @@
     <col min="4" max="4" width="20.33203125" customWidth="1"/>
     <col min="5" max="5" width="12.88671875" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="19.109375" customWidth="1"/>
-    <col min="11" max="11" width="19.44140625" customWidth="1"/>
+    <col min="7" max="8" width="19.109375" customWidth="1"/>
+    <col min="9" max="9" width="29.109375" customWidth="1"/>
+    <col min="10" max="15" width="19.109375" customWidth="1"/>
+    <col min="16" max="16" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -569,13 +590,28 @@
         <v>35</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -589,31 +625,46 @@
         <v>30</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="4" t="b">
+      <c r="K2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" s="4" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K2" xr:uid="{F0E771B3-A481-4DD0-B3ED-7DCB6749EF64}"/>
+  <autoFilter ref="A1:P2" xr:uid="{F0E771B3-A481-4DD0-B3ED-7DCB6749EF64}"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2" xr:uid="{DBE1DED1-53EF-43BE-8D71-88C6B8A3A55F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2" xr:uid="{DBE1DED1-53EF-43BE-8D71-88C6B8A3A55F}">
       <formula1>tFalse</formula1>
     </dataValidation>
   </dataValidations>

--- a/ACCESS_SCRIPT/input_data/datapool/Access_Regression.xlsx
+++ b/ACCESS_SCRIPT/input_data/datapool/Access_Regression.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32206C7A-3A28-4958-BEFB-0C8E248843DC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7452B3A5-06BC-4DA3-8420-B6C7AB612D6B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regression" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>TC_TAG_001</t>
   </si>
@@ -161,9 +161,6 @@
     <t>Test</t>
   </si>
   <si>
-    <t>test_File.xlsx</t>
-  </si>
-  <si>
     <t>A-000-000</t>
   </si>
   <si>
@@ -185,7 +182,19 @@
     <t>Number_of_uploads</t>
   </si>
   <si>
-    <t>10</t>
+    <t>test_File_1.xlsx</t>
+  </si>
+  <si>
+    <t>test_File_5.xlsx</t>
+  </si>
+  <si>
+    <t>test_File_4.xlsx</t>
+  </si>
+  <si>
+    <t>test_File_2.xlsx</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -543,7 +552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
@@ -590,22 +599,22 @@
         <v>35</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>3</v>
@@ -625,7 +634,7 @@
         <v>30</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>36</v>
@@ -640,22 +649,20 @@
         <v>39</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="P2" s="4" t="b">
         <v>1</v>

--- a/ACCESS_SCRIPT/input_data/datapool/Access_Regression.xlsx
+++ b/ACCESS_SCRIPT/input_data/datapool/Access_Regression.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7452B3A5-06BC-4DA3-8420-B6C7AB612D6B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274FF289-6DCA-4AD2-A258-81EF6E351956}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regression" sheetId="1" r:id="rId1"/>
-    <sheet name="dropdowns" sheetId="7" r:id="rId2"/>
+    <sheet name="Fields Help" sheetId="8" r:id="rId2"/>
+    <sheet name="dropdowns" sheetId="7" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Regression!$A$1:$P$2</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="89">
   <si>
     <t>TC_TAG_001</t>
   </si>
@@ -131,9 +132,6 @@
     <t>tFalse</t>
   </si>
   <si>
-    <t>First_test_Case</t>
-  </si>
-  <si>
     <t>Case_Number</t>
   </si>
   <si>
@@ -194,14 +192,164 @@
     <t>test_File_2.xlsx</t>
   </si>
   <si>
-    <t>3</t>
+    <t>Test_Case_001</t>
+  </si>
+  <si>
+    <t>Test_Case_002</t>
+  </si>
+  <si>
+    <t>TC_TAG_002</t>
+  </si>
+  <si>
+    <t>Validate file upload with multiple files</t>
+  </si>
+  <si>
+    <t>Case Number</t>
+  </si>
+  <si>
+    <t>Segment Begin Date</t>
+  </si>
+  <si>
+    <t>Enter the segment beginning date in mm/dd/yyyy format.</t>
+  </si>
+  <si>
+    <t>Segment End Date</t>
+  </si>
+  <si>
+    <t>Segment Specific Information</t>
+  </si>
+  <si>
+    <t>Security Classification</t>
+  </si>
+  <si>
+    <t>Document Type</t>
+  </si>
+  <si>
+    <t>Filed On Behalf Of (collective entity)</t>
+  </si>
+  <si>
+    <t>Manual Submission</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Upload File(s)</t>
+  </si>
+  <si>
+    <t>Validate fields Help Messages!</t>
+  </si>
+  <si>
+    <t>Quick Search</t>
+  </si>
+  <si>
+    <t>Submit</t>
+  </si>
+  <si>
+    <t>Reset</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>Click 'Quick Search' to perform search for selected criteria.</t>
+  </si>
+  <si>
+    <t>Click 'Submit' to transmit information in the form to the system.</t>
+  </si>
+  <si>
+    <t>Click 'Reset' to undo the edits you have made in the form.</t>
+  </si>
+  <si>
+    <t>Click 'Cancel' to return back to home page. Edits to the form will not be saved.</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Enter the case number of the proceeding.</t>
+  </si>
+  <si>
+    <t>Select the segment of the proceeding.</t>
+  </si>
+  <si>
+    <t>Enter the segment end date in mm/dd/yyyy format.</t>
+  </si>
+  <si>
+    <t>Select the segment specific information of the proceeding. If not listed select “Request” or contact case analyst to add respective segment profile.</t>
+  </si>
+  <si>
+    <t>Select the type of security classification of the document. e.g. Public Document</t>
+  </si>
+  <si>
+    <t>Select the type of document that most closely describes this filing.</t>
+  </si>
+  <si>
+    <t>Enter the company/entity, (or if applicable, the collective company/entity name) on whose behalf this submission is filed.</t>
+  </si>
+  <si>
+    <t>Check this box if the document will be paper filed (manual) and not electronically filed.</t>
+  </si>
+  <si>
+    <t>Select the checkbox if Bracketing Not Final/1 Day Lag Filing. You must resubmit final version next business day.</t>
+  </si>
+  <si>
+    <t>Enter information or instructions about the document being filed.</t>
+  </si>
+  <si>
+    <t>Enter the Title of the document being submitted.</t>
+  </si>
+  <si>
+    <t>Click 'Browse' or 'Upload File(s)' or 'Choose File(s)' to attach following file types for electronic submission. Limit the length of the filename to 80 characters, Filename should not contain any special characters.
+Document Files:
+.pdf - Portable Document Format
+Data Files:
+.accdb - Data (MS Access)
+.csv - Comma Separated Values
+.dat - Data
+.dbf - dBase
+.log - SAS log file
+.lst - SAS output file
+.mda - Data (MS Access)
+.mdb - Database (MS Access)
+.prn - Printer Text File
+.SAS - SAS Program
+.sas7bcat - SAS System file catalog
+.sas7bdat - SAS System data set
+.sas7bndx - SAS System index
+.sas7bpgm - SAS System Stored Program
+.sas7bvew - SAS Data Set View
+.sas7mdb - SAS System multidimensional database
+.SD2 - Version 6 SAS dataset
+.ss2 - Version 6 SAS stored program
+.ss7 - Version 7 and Version 8 SAS stored program
+.txt - Text File
+.xls - MS Excel
+.xlsx - MS Excel new format
+.zip - Compressed Archive File
+.egp - SAS Enterprise Guide Project
+Video Files:
+.mp4 - MPEG-4
+.mpg - MPEG 1 System Stream
+.wmv - Windows Media File
+Size Limit:
+1. User can upload up to 5 PDF each with 5 MB limit totaling 25 MB.
+2. User can upload 1 data file up to 25 MB or upload multiple data files totaling 25 MB.
+3. There is a 25 MB limit for PDF and data file(s) uploaded in one attempt.
+4. If an individual data file is greater than 25 MB, it must be submitted manually on CD-ROM or DVD.</t>
+  </si>
+  <si>
+    <t>Bracketing Not Final/1 Day Lag Filing(You must resubmit final version next business day)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,8 +378,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="0"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -249,8 +410,14 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -258,17 +425,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -550,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -561,7 +756,7 @@
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.44140625" customWidth="1"/>
     <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.88671875" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="19.109375" customWidth="1"/>
@@ -571,107 +766,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="O1" s="3" t="s">
+      <c r="G2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="K2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P2" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="O2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="P2" s="4" t="b">
+      <c r="C3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="8" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:P2" xr:uid="{F0E771B3-A481-4DD0-B3ED-7DCB6749EF64}"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2" xr:uid="{DBE1DED1-53EF-43BE-8D71-88C6B8A3A55F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P3" xr:uid="{DBE1DED1-53EF-43BE-8D71-88C6B8A3A55F}">
       <formula1>tFalse</formula1>
     </dataValidation>
   </dataValidations>
@@ -681,6 +904,131 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C13761A-3297-42BE-A467-58B56EE6B5E1}">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="24.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="14" max="14" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="128.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEEFFF53-F7F9-426B-B3D1-DD3E2516D286}">
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -700,7 +1048,7 @@
       <c r="B1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D1" t="s">
@@ -709,7 +1057,7 @@
       <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G1" t="b">
@@ -723,7 +1071,7 @@
       <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D2" t="s">
@@ -732,7 +1080,7 @@
       <c r="E2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G2" t="b">
@@ -755,7 +1103,7 @@
       <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G3" t="s">
@@ -766,27 +1114,27 @@
       <c r="E4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>28</v>
       </c>
     </row>

--- a/ACCESS_SCRIPT/input_data/datapool/Access_Regression.xlsx
+++ b/ACCESS_SCRIPT/input_data/datapool/Access_Regression.xlsx
@@ -3,23 +3,29 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274FF289-6DCA-4AD2-A258-81EF6E351956}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF01985A-E60E-4028-8F64-EC3B1E428667}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regression" sheetId="1" r:id="rId1"/>
     <sheet name="Fields Help" sheetId="8" r:id="rId2"/>
-    <sheet name="dropdowns" sheetId="7" r:id="rId3"/>
+    <sheet name="Fields Validation" sheetId="9" r:id="rId3"/>
+    <sheet name="dropdowns" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Regression!$A$1:$P$2</definedName>
     <definedName name="CaseType">dropdowns!$B$1:$B$2</definedName>
     <definedName name="CaseType2">dropdowns!$E$1:$E$3</definedName>
+    <definedName name="dt">dropdowns!$J$1:$J$12</definedName>
     <definedName name="FiledSelf">dropdowns!$C$1:$C$2</definedName>
     <definedName name="InvType">dropdowns!$D$1:$D$2</definedName>
     <definedName name="rec_type">#REF!</definedName>
+    <definedName name="sc">dropdowns!$I$1:$I$5</definedName>
     <definedName name="segType">dropdowns!$F$1:$F$7</definedName>
+    <definedName name="sg">dropdowns!$H$1:$H$10</definedName>
+    <definedName name="sgmt">dropdowns!$H$4:$H$10</definedName>
+    <definedName name="ssi">dropdowns!$K$1:$K$2</definedName>
     <definedName name="tFalse">dropdowns!$G$1:$G$2</definedName>
     <definedName name="Yes_No">#REF!</definedName>
     <definedName name="YesOrNo">dropdowns!$A$1:$A$2</definedName>
@@ -40,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="128">
   <si>
     <t>TC_TAG_001</t>
   </si>
@@ -344,12 +350,129 @@
   <si>
     <t>Bracketing Not Final/1 Day Lag Filing(You must resubmit final version next business day)</t>
   </si>
+  <si>
+    <t>Given Value</t>
+  </si>
+  <si>
+    <t>Filed Name</t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>Test_Case_003</t>
+  </si>
+  <si>
+    <t>TC_TAG_003</t>
+  </si>
+  <si>
+    <t>Validate fields Error Messages!</t>
+  </si>
+  <si>
+    <t>CCR - Changed Circumstances</t>
+  </si>
+  <si>
+    <t>CIRC - Anti Circumvention Inquiry</t>
+  </si>
+  <si>
+    <t>NSR - New Shipper Review</t>
+  </si>
+  <si>
+    <t>REM - Remand</t>
+  </si>
+  <si>
+    <t>REV - Admin Review</t>
+  </si>
+  <si>
+    <t>S129 - SEC 129</t>
+  </si>
+  <si>
+    <t>SCO - Scope Inquiry</t>
+  </si>
+  <si>
+    <t>SUNR - Sunset Review</t>
+  </si>
+  <si>
+    <t>SUSP - Suspension Agreement</t>
+  </si>
+  <si>
+    <t>BPI Document – May Be Released Under APO</t>
+  </si>
+  <si>
+    <t>BPI Document – May Not Be Released Under APO</t>
+  </si>
+  <si>
+    <t>BPI/APO Version – May Be Released Under APO</t>
+  </si>
+  <si>
+    <t>Public Version</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>APO</t>
+  </si>
+  <si>
+    <t>Brief</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Entry_of_Appearance</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Petition</t>
+  </si>
+  <si>
+    <t>Publication</t>
+  </si>
+  <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t>Transcript</t>
+  </si>
+  <si>
+    <t>Verification</t>
+  </si>
+  <si>
+    <t>Withdrawal_of_Review_Request</t>
+  </si>
+  <si>
+    <t>dt</t>
+  </si>
+  <si>
+    <t>sg</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>A-000</t>
+  </si>
+  <si>
+    <t>000-000</t>
+  </si>
+  <si>
+    <t>Request New Segment</t>
+  </si>
+  <si>
+    <t>CCR &amp; option1</t>
+  </si>
+  <si>
+    <t>ssi</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,8 +514,20 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF666666"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,6 +548,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,9 +586,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -464,6 +604,16 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -745,10 +895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="G2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -766,135 +916,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7" t="s">
+      <c r="L2" s="6"/>
+      <c r="M2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="P2" s="8" t="b">
+      <c r="P2" s="7" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="8" t="b">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="7" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:P2" xr:uid="{F0E771B3-A481-4DD0-B3ED-7DCB6749EF64}"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P3" xr:uid="{DBE1DED1-53EF-43BE-8D71-88C6B8A3A55F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P4" xr:uid="{DBE1DED1-53EF-43BE-8D71-88C6B8A3A55F}">
       <formula1>tFalse</formula1>
     </dataValidation>
   </dataValidations>
@@ -917,108 +1095,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="128.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1029,113 +1207,430 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEEFFF53-F7F9-426B-B3D1-DD3E2516D286}">
-  <dimension ref="A1:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595BAEE0-173B-4C15-B7A9-BE9BBB32AE66}">
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C2"/>
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="15"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="17"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="15"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="17"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="15"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="17"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="17"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="17"/>
+    </row>
+  </sheetData>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B8" xr:uid="{C61DFB8D-2719-45F0-B581-C566B434BFB8}">
+      <formula1>sg</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11:B12" xr:uid="{0E70AE9A-F826-4E49-B87C-B86024D24C5F}">
+      <formula1>sc</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B14" xr:uid="{D1CCC0E1-FA78-47A5-8298-EB4476DD4955}">
+      <formula1>dt</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B10" xr:uid="{6163AB38-CCC8-43ED-9D50-752F826989C5}">
+      <formula1>ssi</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEEFFF53-F7F9-426B-B3D1-DD3E2516D286}">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="b">
+      <c r="G1" s="9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="H1" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="b">
+      <c r="G2" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="H2" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="9" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E4" t="s">
+      <c r="H3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F5" s="1" t="s">
+      <c r="G4" s="9"/>
+      <c r="H4" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F6" s="1" t="s">
+      <c r="G5" s="9"/>
+      <c r="H5" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F7" s="1" t="s">
+      <c r="G6" s="9"/>
+      <c r="H6" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F8" s="1" t="s">
+      <c r="G7" s="9"/>
+      <c r="H7" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="12" t="s">
         <v>28</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H11" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J12" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J13" s="11" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/ACCESS_SCRIPT/input_data/datapool/Access_Regression.xlsx
+++ b/ACCESS_SCRIPT/input_data/datapool/Access_Regression.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF01985A-E60E-4028-8F64-EC3B1E428667}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC6B381-06D2-4F0F-954B-DA3271DF3C50}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="129">
   <si>
     <t>TC_TAG_001</t>
   </si>
@@ -271,9 +271,6 @@
   </si>
   <si>
     <t>Click 'Cancel' to return back to home page. Edits to the form will not be saved.</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>Enter the case number of the proceeding.</t>
@@ -466,6 +463,12 @@
   </si>
   <si>
     <t>ssi</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -897,8 +900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -909,7 +912,8 @@
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.88671875" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="19.109375" customWidth="1"/>
+    <col min="7" max="7" width="25.21875" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" customWidth="1"/>
     <col min="9" max="9" width="29.109375" customWidth="1"/>
     <col min="10" max="15" width="19.109375" customWidth="1"/>
     <col min="16" max="16" width="19.44140625" customWidth="1"/>
@@ -988,7 +992,7 @@
         <v>36</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>38</v>
@@ -1007,7 +1011,7 @@
         <v>47</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="P2" s="7" t="b">
         <v>1</v>
@@ -1046,13 +1050,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>94</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -1071,9 +1075,18 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:P2" xr:uid="{F0E771B3-A481-4DD0-B3ED-7DCB6749EF64}"/>
-  <dataValidations count="1">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P4" xr:uid="{DBE1DED1-53EF-43BE-8D71-88C6B8A3A55F}">
       <formula1>tFalse</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{940FF037-6CB0-4397-A69F-B6DB6A32E954}">
+      <formula1>sg</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{D97BB0DA-B443-4688-855B-5039AEBB8073}">
+      <formula1>sc</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{C53970CD-410B-4DD4-B83E-E822AF817295}">
+      <formula1>dt</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1085,8 +1098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C13761A-3297-42BE-A467-58B56EE6B5E1}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1126,7 +1139,7 @@
         <v>62</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>63</v>
@@ -1152,43 +1165,43 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>72</v>
@@ -1222,10 +1235,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1233,7 +1246,7 @@
         <v>54</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1241,7 +1254,7 @@
         <v>54</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1249,7 +1262,7 @@
         <v>54</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1277,7 +1290,7 @@
         <v>31</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1291,7 +1304,7 @@
         <v>58</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1305,7 +1318,7 @@
         <v>59</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -1319,7 +1332,7 @@
         <v>60</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -1333,7 +1346,7 @@
         <v>61</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -1344,9 +1357,11 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="17"/>
+        <v>64</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>127</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="4">
@@ -1373,7 +1388,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K2"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1381,7 +1396,7 @@
     <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -1407,16 +1422,16 @@
         <v>1</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -1442,16 +1457,16 @@
         <v>0</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1480,13 +1495,13 @@
         <v>35</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -1502,13 +1517,13 @@
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>36</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -1522,10 +1537,10 @@
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>37</v>
@@ -1542,13 +1557,13 @@
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -1562,10 +1577,10 @@
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -1579,10 +1594,10 @@
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -1594,10 +1609,10 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -1609,28 +1624,28 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H11" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="J12" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="J13" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/ACCESS_SCRIPT/input_data/datapool/Access_Regression.xlsx
+++ b/ACCESS_SCRIPT/input_data/datapool/Access_Regression.xlsx
@@ -3,23 +3,26 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC6B381-06D2-4F0F-954B-DA3271DF3C50}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AC3961-F950-428E-AFB1-212DF7451CF1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regression" sheetId="1" r:id="rId1"/>
-    <sheet name="Fields Help" sheetId="8" r:id="rId2"/>
-    <sheet name="Fields Validation" sheetId="9" r:id="rId3"/>
-    <sheet name="dropdowns" sheetId="7" r:id="rId4"/>
+    <sheet name="E-file Fields Help" sheetId="8" r:id="rId2"/>
+    <sheet name="Update Profile Fileds Help" sheetId="10" r:id="rId3"/>
+    <sheet name="Fields Error Validation" sheetId="9" r:id="rId4"/>
+    <sheet name="E-Filer Register Fileds Help" sheetId="11" r:id="rId5"/>
+    <sheet name="dropdowns" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Regression!$A$1:$P$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Regression!$A$1:$R$2</definedName>
     <definedName name="CaseType">dropdowns!$B$1:$B$2</definedName>
     <definedName name="CaseType2">dropdowns!$E$1:$E$3</definedName>
     <definedName name="dt">dropdowns!$J$1:$J$12</definedName>
     <definedName name="FiledSelf">dropdowns!$C$1:$C$2</definedName>
     <definedName name="InvType">dropdowns!$D$1:$D$2</definedName>
+    <definedName name="rec_type" localSheetId="4">#REF!</definedName>
     <definedName name="rec_type">#REF!</definedName>
     <definedName name="sc">dropdowns!$I$1:$I$5</definedName>
     <definedName name="segType">dropdowns!$F$1:$F$7</definedName>
@@ -27,6 +30,7 @@
     <definedName name="sgmt">dropdowns!$H$4:$H$10</definedName>
     <definedName name="ssi">dropdowns!$K$1:$K$2</definedName>
     <definedName name="tFalse">dropdowns!$G$1:$G$2</definedName>
+    <definedName name="Yes_No" localSheetId="4">#REF!</definedName>
     <definedName name="Yes_No">#REF!</definedName>
     <definedName name="YesOrNo">dropdowns!$A$1:$A$2</definedName>
   </definedNames>
@@ -46,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="189">
   <si>
     <t>TC_TAG_001</t>
   </si>
@@ -198,18 +202,9 @@
     <t>test_File_2.xlsx</t>
   </si>
   <si>
-    <t>Test_Case_001</t>
-  </si>
-  <si>
-    <t>Test_Case_002</t>
-  </si>
-  <si>
     <t>TC_TAG_002</t>
   </si>
   <si>
-    <t>Validate file upload with multiple files</t>
-  </si>
-  <si>
     <t>Case Number</t>
   </si>
   <si>
@@ -244,9 +239,6 @@
   </si>
   <si>
     <t>Upload File(s)</t>
-  </si>
-  <si>
-    <t>Validate fields Help Messages!</t>
   </si>
   <si>
     <t>Quick Search</t>
@@ -357,15 +349,9 @@
     <t>abcd</t>
   </si>
   <si>
-    <t>Test_Case_003</t>
-  </si>
-  <si>
     <t>TC_TAG_003</t>
   </si>
   <si>
-    <t>Validate fields Error Messages!</t>
-  </si>
-  <si>
     <t>CCR - Changed Circumstances</t>
   </si>
   <si>
@@ -466,6 +452,204 @@
   </si>
   <si>
     <t>title</t>
+  </si>
+  <si>
+    <t>TC_TAG_004</t>
+  </si>
+  <si>
+    <t>TC_TAG_005</t>
+  </si>
+  <si>
+    <t>Page_Count</t>
+  </si>
+  <si>
+    <t>Title Test</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Submit E-File with multiple uploads (Add files)</t>
+  </si>
+  <si>
+    <t>Submit E-File with multiple uploads (similar submission )</t>
+  </si>
+  <si>
+    <t>Submit E-File as manual submission</t>
+  </si>
+  <si>
+    <t>Firm/Organization Address</t>
+  </si>
+  <si>
+    <t>Country Code</t>
+  </si>
+  <si>
+    <t>Enter job title.</t>
+  </si>
+  <si>
+    <t>Enter Country Code. Country Code is required for non-USA numbers.</t>
+  </si>
+  <si>
+    <t>Enter primary phone number. Please do not format it in any way - ( ) space etc.</t>
+  </si>
+  <si>
+    <t>Enter Firm/Organization Address.</t>
+  </si>
+  <si>
+    <t>Enter Firm/Organization Phone.</t>
+  </si>
+  <si>
+    <t>Enter U.S. jurisdiction(s) and court(s) where you are admitted to practice law, otherwise leave Blank.</t>
+  </si>
+  <si>
+    <t>Select a question from the list that you can easily remember.</t>
+  </si>
+  <si>
+    <t>Enter the answer for the question. Note: the answer is not case sensitive.</t>
+  </si>
+  <si>
+    <t>Select the second question from the list that you can easily remember.</t>
+  </si>
+  <si>
+    <t>Enter the answer for the second question. Note: the answer is not case sensitive.</t>
+  </si>
+  <si>
+    <t>If you are an E-Filer listed as the Lead Attorney on the APO Service List for a segment, you may designate up to two Proxy users to access BPI documents on your behalf. This designation applies for all segments in which you are listed as the Lead Attorney, therefore select only a support staff Proxy user that has signed your firm’s internal Acknowledgment for Support Staff for each of the segments in which you are the Lead Attorney. Similarly, select only an attorney Proxy user that appears as an authorized applicant on all the same APO service lists in which you are the Lead Attorney. Unauthorized access to third party BPI by a Proxy user constitutes an APO violation.</t>
+  </si>
+  <si>
+    <t>PIN (4 digits)</t>
+  </si>
+  <si>
+    <t>Confirm PIN</t>
+  </si>
+  <si>
+    <t>Select Permanent 4 digit Personal Identification Number (PIN). You will need this to access BPI portion of the site or for future update to your profile. You will not be able to change PIN once it is set. Please select a PIN that you will remember.</t>
+  </si>
+  <si>
+    <t>Re-enter the same PIN to confirm the PIN.</t>
+  </si>
+  <si>
+    <t>TC_TAG_006</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Validate E-File fields Help Messages</t>
+  </si>
+  <si>
+    <t>Validate E-File fields Error Messages</t>
+  </si>
+  <si>
+    <t>Validate update profile fields Help Messages</t>
+  </si>
+  <si>
+    <t>Phone(area/city code + number)</t>
+  </si>
+  <si>
+    <t>Firm/Organization Phone(area/city code + number)</t>
+  </si>
+  <si>
+    <t>Admitted to Practice in(U.S. Jurisdictions and Courts only)</t>
+  </si>
+  <si>
+    <t>Proxy(Lead Attorneys Only: Designate up to two APO-authorized Proxy users.)</t>
+  </si>
+  <si>
+    <t>Security Question 1</t>
+  </si>
+  <si>
+    <t>Answer 1</t>
+  </si>
+  <si>
+    <t>Security Question 2</t>
+  </si>
+  <si>
+    <t>Answer 2</t>
+  </si>
+  <si>
+    <t>Full Name</t>
+  </si>
+  <si>
+    <t>Enter user's Full Name such as John A. Doe</t>
+  </si>
+  <si>
+    <t>Firm/Organization Name</t>
+  </si>
+  <si>
+    <t>Select the firm/organization in which you are employed. If your firm/organization name is not found in the list, please select 'Others' and enter your firm/organization name in the box below.</t>
+  </si>
+  <si>
+    <t>Enter firm or organization name.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter U.S. jurisdiction(s) and court(s) where you are admitted to practice law, otherwise leave Blank. </t>
+  </si>
+  <si>
+    <t>Case No. and Segment</t>
+  </si>
+  <si>
+    <t>Provide one active case number and segment in which you plan to participate by e-filing a submission, e.g., A-000-000 POR 01/01/2010 – 12/31/2010. If you will not e-file any submissions or will not access BPI portion of the site, hit 'Cancel' below and register as a Guest User instead.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Username </t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Enter an email address as your username. This email address must be your own individual email address used in the normal course of business for your firm/organization. Do not enter a group or general email address.</t>
+  </si>
+  <si>
+    <t>Enter your desired password. The password must be a minimum of 12 characters, and contain at least 1 uppercase, lowercase letter, number, and special character.</t>
+  </si>
+  <si>
+    <t>Confirm Password</t>
+  </si>
+  <si>
+    <t>Re-enter the same password to confirm the password.</t>
+  </si>
+  <si>
+    <t>Security Code</t>
+  </si>
+  <si>
+    <t>Enter the letters you see in the image below.</t>
+  </si>
+  <si>
+    <t>If Others, Enter Firm:</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>TC_TAG_007</t>
+  </si>
+  <si>
+    <t>Validate E file register fields Help Messages</t>
+  </si>
+  <si>
+    <t>Submit_With_Add_Files</t>
+  </si>
+  <si>
+    <t>Submit_With_Similar_Submission</t>
+  </si>
+  <si>
+    <t>Submit_As_Manual_Submission</t>
+  </si>
+  <si>
+    <t>Validate_Efile_Help_Messages</t>
+  </si>
+  <si>
+    <t>Validate_Efile_Error_Messages</t>
+  </si>
+  <si>
+    <t>Validate_Update_Profile_Help_Messages</t>
+  </si>
+  <si>
+    <t>Validate_Efile_Register_Help_Messages</t>
   </si>
   <si>
     <t>0</t>
@@ -475,7 +659,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -490,12 +674,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF3E3E3C"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -528,6 +706,19 @@
       <color rgb="FF222222"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color theme="0"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -587,36 +778,50 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -898,28 +1103,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="35.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.88671875" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.21875" customWidth="1"/>
-    <col min="8" max="8" width="19.109375" customWidth="1"/>
-    <col min="9" max="9" width="29.109375" customWidth="1"/>
-    <col min="10" max="15" width="19.109375" customWidth="1"/>
-    <col min="16" max="16" width="19.44140625" customWidth="1"/>
+    <col min="7" max="7" width="42.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="19.109375" customWidth="1"/>
+    <col min="11" max="11" width="29.109375" customWidth="1"/>
+    <col min="12" max="17" width="19.109375" customWidth="1"/>
+    <col min="18" max="18" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -945,42 +1150,48 @@
         <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>50</v>
+        <v>181</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>39</v>
@@ -989,103 +1200,265 @@
         <v>35</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="I2" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="6"/>
+      <c r="O2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="P2" s="7" t="b">
+      <c r="Q2" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="R2" s="7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>51</v>
+        <v>182</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+        <v>50</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>103</v>
+      </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
+      <c r="K3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="7" t="b">
+      <c r="O3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="R3" s="7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>91</v>
+        <v>183</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
+        <v>87</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
-      <c r="P4" s="7" t="b">
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="R4" s="7" t="b">
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:P2" xr:uid="{F0E771B3-A481-4DD0-B3ED-7DCB6749EF64}"/>
+  <autoFilter ref="A1:R2" xr:uid="{F0E771B3-A481-4DD0-B3ED-7DCB6749EF64}"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P4" xr:uid="{DBE1DED1-53EF-43BE-8D71-88C6B8A3A55F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R8" xr:uid="{DBE1DED1-53EF-43BE-8D71-88C6B8A3A55F}">
       <formula1>tFalse</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{940FF037-6CB0-4397-A69F-B6DB6A32E954}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4" xr:uid="{940FF037-6CB0-4397-A69F-B6DB6A32E954}">
       <formula1>sg</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{D97BB0DA-B443-4688-855B-5039AEBB8073}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G4" xr:uid="{D97BB0DA-B443-4688-855B-5039AEBB8073}">
       <formula1>sc</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{C53970CD-410B-4DD4-B83E-E822AF817295}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4" xr:uid="{C53970CD-410B-4DD4-B83E-E822AF817295}">
       <formula1>dt</formula1>
     </dataValidation>
   </dataValidations>
@@ -1099,7 +1472,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1109,108 +1482,108 @@
   <sheetData>
     <row r="1" spans="1:17" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="K1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="Q1" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="128.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="O2" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1220,11 +1593,146 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF3E587F-95CB-4B3B-B554-4163C81010AA}">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q1" sqref="A1:Q2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="67.2" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" customWidth="1"/>
+    <col min="5" max="5" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595BAEE0-173B-4C15-B7A9-BE9BBB32AE66}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1235,132 +1743,132 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="14"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="16"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="15"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="17"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>94</v>
-      </c>
-    </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="14"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="16"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="14"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="15"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
+      <c r="B15" s="16"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="17"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="15"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+      <c r="B16" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="17"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+      <c r="B17" s="16"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B18" s="16" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="17"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1383,20 +1891,184 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C2DF86-F1BB-4CD4-A555-D408AADA50A7}">
+  <dimension ref="A1:U2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="67.2" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="5.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="6" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1"/>
+    <col min="11" max="11" width="9.21875" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" customWidth="1"/>
+    <col min="13" max="13" width="17" customWidth="1"/>
+    <col min="14" max="14" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" customWidth="1"/>
+    <col min="16" max="16" width="18.88671875" customWidth="1"/>
+    <col min="17" max="17" width="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="S1" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="T1" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="U1" s="21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="106.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEEFFF53-F7F9-426B-B3D1-DD3E2516D286}">
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -1406,7 +2078,7 @@
       <c r="B1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="9" t="s">
@@ -1415,23 +2087,23 @@
       <c r="E1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="9" t="s">
         <v>21</v>
       </c>
       <c r="G1" s="9" t="b">
         <v>1</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>124</v>
+        <v>88</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -1441,7 +2113,7 @@
       <c r="B2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -1450,23 +2122,23 @@
       <c r="E2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="9" t="s">
         <v>22</v>
       </c>
       <c r="G2" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="H2" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>125</v>
+      <c r="H2" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1485,23 +2157,23 @@
       <c r="E3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="9" t="s">
         <v>23</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>110</v>
+      <c r="I3" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>104</v>
       </c>
       <c r="K3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -1512,18 +2184,18 @@
       <c r="E4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="9"/>
-      <c r="H4" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="I4" s="11" t="s">
+      <c r="H4" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="11" t="s">
-        <v>111</v>
+      <c r="J4" s="9" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -1532,17 +2204,17 @@
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="9" t="s">
         <v>25</v>
       </c>
       <c r="G5" s="9"/>
-      <c r="H5" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="J5" s="11" t="s">
+      <c r="H5" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J5" s="9" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1552,18 +2224,18 @@
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="9" t="s">
         <v>26</v>
       </c>
       <c r="G6" s="9"/>
-      <c r="H6" s="13" t="s">
-        <v>98</v>
+      <c r="H6" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>112</v>
+        <v>101</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -1572,15 +2244,15 @@
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="9" t="s">
         <v>27</v>
       </c>
       <c r="G7" s="9"/>
-      <c r="H7" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>113</v>
+      <c r="H7" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -1589,15 +2261,15 @@
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="9" t="s">
         <v>28</v>
       </c>
       <c r="G8" s="9"/>
-      <c r="H8" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>114</v>
+      <c r="H8" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -1608,11 +2280,11 @@
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>115</v>
+      <c r="H9" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -1623,29 +2295,29 @@
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>116</v>
+      <c r="H10" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H11" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>117</v>
+      <c r="H11" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="J12" s="11" t="s">
-        <v>118</v>
+      <c r="J12" s="9" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="J13" s="11" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
